--- a/Excel assignment/Section1.xlsx
+++ b/Excel assignment/Section1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA Assignment\Excel assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA-Assignment\Excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC9C0F-D499-4B28-8948-B312C03668B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CA43A4-A077-43C8-B532-F04C62EC36DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -194,8 +194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -319,9 +319,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,7 +339,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -353,7 +350,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,80 +963,80 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f>SUM(A2:A11)</f>
         <v>861</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1058,64 +1058,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>AVERAGE(B1:B5)</f>
         <v>25.8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1139,18 +1139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4BA437-3046-49CD-BE10-0AB562E44874}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,505 +1222,505 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>44113</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>95</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1.99</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>F4*E4</f>
         <v>189.05</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>44114</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>50</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:G21" si="0">F5*E5</f>
         <v>999.49999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>44115</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>36</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>4.99</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>179.64000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>44116</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>50</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>999.49999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>44117</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>67</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>2.99</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>200.33</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>44118</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>81</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>4.99</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>404.19</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>44119</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>71</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>1.99</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>141.29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>44120</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>30</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>4.99</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>149.70000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>44121</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>50</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>1.99</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>44122</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>60</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>8.99</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="0"/>
         <v>539.4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>44123</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>90</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>4.99</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>449.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>44124</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>29</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>1.99</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>57.71</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>44125</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>76</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>1.99</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>151.24</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>44126</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>57</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" si="0"/>
         <v>1139.4299999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>44127</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>10</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>1.29</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>44128</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>20</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>4.99</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f t="shared" si="0"/>
         <v>99.800000000000011</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>44129</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>94</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>1879.06</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>44130</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>28</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>4.99</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f t="shared" si="0"/>
         <v>139.72</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="20"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="20"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="43" spans="10:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="10:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6403A-AA4F-478F-974F-6C04B09C46FC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,15 +1757,15 @@
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>CONCATENATE(A4," ",B4)</f>
         <v>Yesha Modi</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f>CONCATENATE(A4,"@"," ",B4)</f>
         <v>Yesha@ Modi</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
